--- a/excel/over_traffic_202309.xlsx
+++ b/excel/over_traffic_202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>595</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>291</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>252</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>543</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>636</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>718</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>731</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1139,24 +1139,24 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2085</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1316,24 +1316,24 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>356</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>336</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>567</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>545</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>372</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>629</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>372</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1493,24 +1493,24 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3177</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1555,27 +1555,27 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>747</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>88</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>152</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>237</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>138</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1467</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>452</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>816</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>398</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>872</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1924,22 +1924,22 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>911</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>414</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>679</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>504</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2024,24 +2024,24 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>6570</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2076,17 +2076,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>852</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>776</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2096,27 +2096,27 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>780</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>733</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>891</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>584</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2131,27 +2131,27 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>830</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>266</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>284</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>878</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2166,22 +2166,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>445</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>445</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>539</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>426</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2201,24 +2201,24 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>9204</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>158</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2378,24 +2378,24 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>158</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>829</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2555,24 +2555,19 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>829</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0AA4S2</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2592,67 +2587,67 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>856</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>734</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>2,088</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,412</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>747</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,830</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>2,732</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>2,107</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>1,819</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1,196</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2662,27 +2657,27 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,874</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>266</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>284</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,886</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,104</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2697,22 +2692,22 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,731</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>445</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,356</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,088</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2732,1064 +2727,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3929</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>吳建霖</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ChienLin Wu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0AA4S2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>780</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>733</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>891</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>878</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>3492</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>蔡俊輝</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Alex Tsai</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>張雅惠</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>872</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>821</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2,732</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2,107</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1,819</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1,196</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1,874</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>878</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>842</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>18,465</t>
+          <t>27,944</t>
         </is>
       </c>
     </row>
